--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74871.89630949456</v>
+        <v>14374102.31889693</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74871.89630949456</v>
+        <v>14374102.31889693</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24398.45962826208</v>
+        <v>3124535.487991982</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24398.45962826208</v>
+        <v>3124535.487991982</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418703534.725811</v>
+        <v>54991113.26362386</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11519.73986938418</v>
+        <v>1215981.572259553</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22171.00765815751</v>
+        <v>2298912.742566738</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33095.70886204193</v>
+        <v>3435825.965617037</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44426.16963293101</v>
+        <v>4469052.321702652</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55211.49305903766</v>
+        <v>5584710.433641839</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65996.81648514429</v>
+        <v>6700368.545581024</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77035.69594856302</v>
+        <v>7889561.157387007</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87921.93047857398</v>
+        <v>9053072.751706311</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99213.83747193406</v>
+        <v>10066249.65107348</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109992.5277362845</v>
+        <v>11195097.15765698</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120048.6528012752</v>
+        <v>12332773.79204669</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130244.1556440436</v>
+        <v>13491705.53754754</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140439.6584868121</v>
+        <v>14650637.28304838</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151285.335982696</v>
+        <v>15716470.58709541</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163925.3018692649</v>
+        <v>16424742.88782828</v>
       </c>
     </row>
   </sheetData>
